--- a/GHSP study/Additional references/R245fa Saturated properties temperature table.xlsx
+++ b/GHSP study/Additional references/R245fa Saturated properties temperature table.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WIP\12343 - Research &amp; Development\Issue 251 - Rankine cycle research\Additional references\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
@@ -166,7 +161,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -230,6 +225,1052 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Saturated Liquid</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>0.69489999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0093000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0185999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0278</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0368999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0461</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0551999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0642</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0693999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0732999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0822000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0911999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1001000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.109</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1177999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1267</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1355</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1442000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1529</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1617</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1702999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.179</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1876</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1961999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2048000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2133</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2219</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2303999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2388999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.2474000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.2558</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2642</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.2726999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.2810999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.2894000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2978000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.3062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.3145</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.3229</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.3311999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.3394999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.3478000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.3561000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.3644000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.3727</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.381</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.3893</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.3976</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4058999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4141999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4225000000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4308000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4516</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4724999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.4936</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.5147999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.5364</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.5584</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.581</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6046</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.6597</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>154.02000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Saturated vapor</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>1.8008999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7834000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7605999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7541</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7485999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7484</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7484</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7484</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7484999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7486999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7488999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7492000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7494000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7496</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7504</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7508999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7515000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7521</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7526999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7534000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7541</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7548999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7557</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7565999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7574000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7583</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7593000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7603</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.7613000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7623</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7633000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7644</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7655000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.7665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.7678</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7688999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.7701</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.7713000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7724</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7736000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.7747999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.776</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7773000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.7785</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.7797000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7808999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.7821</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7833000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.7845</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.7856000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.7867999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.7879</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.7889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7901</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.7911999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7936000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.7959000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.7977000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.7990999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.7998000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.7997000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7984</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.7952999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.7890999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7762</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>154.02000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="34407936"/>
+        <c:axId val="34406400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="34407936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Entropy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (kJ/(kgK))</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="34406400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="34406400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="175"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature (C)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="34407936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -521,7 +1562,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -531,7 +1572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="R71" sqref="R71"/>
     </sheetView>
   </sheetViews>
@@ -4474,5 +5515,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>